--- a/Code/Results/Cases/Case_0_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.637520790938103</v>
+        <v>9.01820408189476</v>
       </c>
       <c r="D2">
-        <v>4.330534260311104</v>
+        <v>7.607254736013832</v>
       </c>
       <c r="E2">
-        <v>7.948737782226225</v>
+        <v>13.20875538047561</v>
       </c>
       <c r="F2">
-        <v>36.18124988316318</v>
+        <v>41.98635104916716</v>
       </c>
       <c r="G2">
-        <v>2.053435012060806</v>
+        <v>3.685679427710111</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.42023276924021</v>
+        <v>32.25314471626245</v>
       </c>
       <c r="J2">
-        <v>5.959236367450716</v>
+        <v>10.4744092580595</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.851030205371774</v>
+        <v>10.38439625577701</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>27.29886545907729</v>
+        <v>32.46513917364775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.545224482907344</v>
+        <v>9.026284143667457</v>
       </c>
       <c r="D3">
-        <v>4.324793953064084</v>
+        <v>7.619166327290476</v>
       </c>
       <c r="E3">
-        <v>7.858009727708456</v>
+        <v>13.22722596969196</v>
       </c>
       <c r="F3">
-        <v>34.43851774959859</v>
+        <v>41.76131505605715</v>
       </c>
       <c r="G3">
-        <v>2.062934601583234</v>
+        <v>3.689264724329762</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.24242200968405</v>
+        <v>32.12472334157368</v>
       </c>
       <c r="J3">
-        <v>5.943283650058849</v>
+        <v>10.49420576174005</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.846222500145453</v>
+        <v>10.40432801276011</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>26.02946442166626</v>
+        <v>32.31302885946887</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.491076403298745</v>
+        <v>9.032606829518814</v>
       </c>
       <c r="D4">
-        <v>4.322766013696784</v>
+        <v>7.627175429834075</v>
       </c>
       <c r="E4">
-        <v>7.806332773105106</v>
+        <v>13.24046196189959</v>
       </c>
       <c r="F4">
-        <v>33.3546522655821</v>
+        <v>41.63325448983645</v>
       </c>
       <c r="G4">
-        <v>2.068923553849419</v>
+        <v>3.691583311878324</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.51378004635711</v>
+        <v>32.05343635976043</v>
       </c>
       <c r="J4">
-        <v>5.936317104570092</v>
+        <v>10.50761109073018</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.845817792600811</v>
+        <v>10.41772010662014</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>25.24203402487285</v>
+        <v>32.22733609144269</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.469647930318531</v>
+        <v>9.035525839059773</v>
       </c>
       <c r="D5">
-        <v>4.3223071944549</v>
+        <v>7.630614320094867</v>
       </c>
       <c r="E5">
-        <v>7.786274007652612</v>
+        <v>13.24633228767249</v>
       </c>
       <c r="F5">
-        <v>32.9100033280387</v>
+        <v>41.58365123480633</v>
       </c>
       <c r="G5">
-        <v>2.07140529782988</v>
+        <v>3.69255773400047</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.21582872088808</v>
+        <v>32.02630787008246</v>
       </c>
       <c r="J5">
-        <v>5.934170635913443</v>
+        <v>10.51338847736726</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.846277375356721</v>
+        <v>10.42346796923212</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>24.91950685215557</v>
+        <v>32.19437749993968</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.466128316590825</v>
+        <v>9.03603122401627</v>
       </c>
       <c r="D6">
-        <v>4.322252959276502</v>
+        <v>7.63119592959725</v>
       </c>
       <c r="E6">
-        <v>7.78300325214911</v>
+        <v>13.2473358334885</v>
       </c>
       <c r="F6">
-        <v>32.83600738477421</v>
+        <v>41.57557170401196</v>
       </c>
       <c r="G6">
-        <v>2.071819931652844</v>
+        <v>3.692721325709278</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.16630358728712</v>
+        <v>32.02191977967173</v>
       </c>
       <c r="J6">
-        <v>5.933855497408045</v>
+        <v>10.51436681616352</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.846390948081555</v>
+        <v>10.42443995059588</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>24.86586436431089</v>
+        <v>32.18902391359681</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.490784827400528</v>
+        <v>9.032644809587213</v>
       </c>
       <c r="D7">
-        <v>4.322758348891033</v>
+        <v>7.627221098511666</v>
       </c>
       <c r="E7">
-        <v>7.806058222976395</v>
+        <v>13.24053920161131</v>
       </c>
       <c r="F7">
-        <v>33.34866683590541</v>
+        <v>41.63257501756477</v>
       </c>
       <c r="G7">
-        <v>2.068956854254329</v>
+        <v>3.691596333370152</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.50976541328955</v>
+        <v>32.05306269155859</v>
       </c>
       <c r="J7">
-        <v>5.936285377332607</v>
+        <v>10.50768773245974</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.84582148290088</v>
+        <v>10.41779644777081</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767602</v>
       </c>
       <c r="O7">
-        <v>25.23769042352301</v>
+        <v>32.22688362618261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.605175512517105</v>
+        <v>9.020707590515187</v>
       </c>
       <c r="D8">
-        <v>4.328238989601967</v>
+        <v>7.611217696648281</v>
       </c>
       <c r="E8">
-        <v>7.916610318004684</v>
+        <v>13.21473077934277</v>
       </c>
       <c r="F8">
-        <v>35.58350101350688</v>
+        <v>41.90668478266929</v>
       </c>
       <c r="G8">
-        <v>2.056679262120171</v>
+        <v>3.686891377876952</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.01544907765723</v>
+        <v>32.20730747324313</v>
       </c>
       <c r="J8">
-        <v>5.953137361604985</v>
+        <v>10.4809757574066</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.848834021388328</v>
+        <v>10.39102942067699</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>26.86304181667271</v>
+        <v>32.41110837230735</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.849375256000583</v>
+        <v>9.008095190907783</v>
       </c>
       <c r="D9">
-        <v>4.351278102963449</v>
+        <v>7.585340521831191</v>
       </c>
       <c r="E9">
-        <v>8.165976837622074</v>
+        <v>13.17915328946066</v>
       </c>
       <c r="F9">
-        <v>39.83896098580879</v>
+        <v>42.52252545928049</v>
       </c>
       <c r="G9">
-        <v>2.033747264478664</v>
+        <v>3.678590008459284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.91249417672373</v>
+        <v>32.56883389625045</v>
       </c>
       <c r="J9">
-        <v>6.009501361829033</v>
+        <v>10.43850311359026</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.875704631549927</v>
+        <v>10.34768134080416</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>29.97395556591125</v>
+        <v>32.83228033051572</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.040791376232775</v>
+        <v>9.005399333771559</v>
       </c>
       <c r="D10">
-        <v>4.376316321204081</v>
+        <v>7.569669068581196</v>
       </c>
       <c r="E10">
-        <v>8.369904505566641</v>
+        <v>13.16217310825693</v>
       </c>
       <c r="F10">
-        <v>42.8719336782534</v>
+        <v>43.01989616275389</v>
       </c>
       <c r="G10">
-        <v>2.017451453198721</v>
+        <v>3.673048073627135</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.99526423990412</v>
+        <v>32.86899788218302</v>
       </c>
       <c r="J10">
-        <v>6.066395154549641</v>
+        <v>10.41332570842081</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.909323524308518</v>
+        <v>10.32138811905197</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>32.20096757706258</v>
+        <v>33.17643199513781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.130481989364077</v>
+        <v>9.005595722851368</v>
       </c>
       <c r="D11">
-        <v>4.389617462080959</v>
+        <v>7.563261710337153</v>
       </c>
       <c r="E11">
-        <v>8.467385064499604</v>
+        <v>13.15643464630134</v>
       </c>
       <c r="F11">
-        <v>44.23001426178971</v>
+        <v>43.25524313501465</v>
       </c>
       <c r="G11">
-        <v>2.010121566319659</v>
+        <v>3.670646410026934</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.93168464947679</v>
+        <v>33.01269722576998</v>
       </c>
       <c r="J11">
-        <v>6.095937461041679</v>
+        <v>10.40317753376363</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.927890131610514</v>
+        <v>10.31062878041591</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>33.20029415715625</v>
+        <v>33.34009884886685</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.164824505492319</v>
+        <v>9.005874185416241</v>
       </c>
       <c r="D12">
-        <v>4.394942743554212</v>
+        <v>7.56093890835887</v>
       </c>
       <c r="E12">
-        <v>8.504996045846555</v>
+        <v>13.15454686261362</v>
       </c>
       <c r="F12">
-        <v>44.74118232821339</v>
+        <v>43.34560911248911</v>
       </c>
       <c r="G12">
-        <v>2.007354468538618</v>
+        <v>3.669754018713046</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.28468377450977</v>
+        <v>33.06810788966697</v>
       </c>
       <c r="J12">
-        <v>6.107677520948307</v>
+        <v>10.39952209487564</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.935414804813069</v>
+        <v>10.30672695497604</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>33.57673830096923</v>
+        <v>33.40305771350333</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.15741131259004</v>
+        <v>9.005805145158529</v>
       </c>
       <c r="D13">
-        <v>4.393782789702533</v>
+        <v>7.561434564993388</v>
       </c>
       <c r="E13">
-        <v>8.496864490824247</v>
+        <v>13.15494075009878</v>
       </c>
       <c r="F13">
-        <v>44.63123027022286</v>
+        <v>43.32609281545938</v>
       </c>
       <c r="G13">
-        <v>2.007950089488111</v>
+        <v>3.669945453721603</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.20872991100895</v>
+        <v>33.05613052324649</v>
       </c>
       <c r="J13">
-        <v>6.105124045305733</v>
+        <v>10.40030102565641</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.933771874895681</v>
+        <v>10.3075596153684</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>33.4957515989104</v>
+        <v>33.38945539862658</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.133299753550119</v>
+        <v>9.005614544916646</v>
       </c>
       <c r="D14">
-        <v>4.390049712883803</v>
+        <v>7.563068538649345</v>
       </c>
       <c r="E14">
-        <v>8.470465245180531</v>
+        <v>13.15627362253659</v>
       </c>
       <c r="F14">
-        <v>44.27213028524668</v>
+        <v>43.26265300682772</v>
       </c>
       <c r="G14">
-        <v>2.009893764534298</v>
+        <v>3.67057265099696</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.96075807255841</v>
+        <v>33.01723615636239</v>
       </c>
       <c r="J14">
-        <v>6.096892079013179</v>
+        <v>10.40287304306725</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.928499152600199</v>
+        <v>10.31030431932244</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>33.23130386118491</v>
+        <v>33.3452590760745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.118580170821808</v>
+        <v>9.005524359729998</v>
       </c>
       <c r="D15">
-        <v>4.38780108425346</v>
+        <v>7.564082869342791</v>
       </c>
       <c r="E15">
-        <v>8.454386380501807</v>
+        <v>13.15712718214455</v>
       </c>
       <c r="F15">
-        <v>44.05176821835103</v>
+        <v>43.22395457002656</v>
       </c>
       <c r="G15">
-        <v>2.011085330692298</v>
+        <v>3.670959047002838</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.80866010881967</v>
+        <v>32.99354075721487</v>
       </c>
       <c r="J15">
-        <v>6.091922609775046</v>
+        <v>10.40447288324399</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.925334500368408</v>
+        <v>10.31200798617252</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>33.06906542484836</v>
+        <v>33.31831416865841</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.034982649950599</v>
+        <v>9.005415088211734</v>
       </c>
       <c r="D16">
-        <v>4.375486650810146</v>
+        <v>7.570102305024408</v>
       </c>
       <c r="E16">
-        <v>8.363630347925989</v>
+        <v>13.16258806578172</v>
       </c>
       <c r="F16">
-        <v>42.78274268687418</v>
+        <v>43.00469336455872</v>
       </c>
       <c r="G16">
-        <v>2.017931871075914</v>
+        <v>3.673207421731635</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.93384194692355</v>
+        <v>32.85974788798388</v>
       </c>
       <c r="J16">
-        <v>6.064540387093595</v>
+        <v>10.41401515957139</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.908177960464361</v>
+        <v>10.32211542192461</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>32.13538073190063</v>
+        <v>33.16587562754422</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.984368838956715</v>
+        <v>9.00571212802164</v>
       </c>
       <c r="D17">
-        <v>4.36843091056267</v>
+        <v>7.573979693102517</v>
       </c>
       <c r="E17">
-        <v>8.309174398275211</v>
+        <v>13.16644657250394</v>
       </c>
       <c r="F17">
-        <v>41.9986677024545</v>
+        <v>42.87246869764549</v>
       </c>
       <c r="G17">
-        <v>2.022151009217956</v>
+        <v>3.674617233054374</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.39430926392187</v>
+        <v>32.77947897145218</v>
       </c>
       <c r="J17">
-        <v>6.048698199538167</v>
+        <v>10.42020316182844</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.898507269749711</v>
+        <v>10.32862356017369</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>31.55904932305201</v>
+        <v>33.07415235336734</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.955502873112419</v>
+        <v>9.006016928227037</v>
       </c>
       <c r="D18">
-        <v>4.36455163413153</v>
+        <v>7.576277805706456</v>
       </c>
       <c r="E18">
-        <v>8.278295036288245</v>
+        <v>13.16885283058786</v>
       </c>
       <c r="F18">
-        <v>41.54564600264008</v>
+        <v>42.79727609406719</v>
       </c>
       <c r="G18">
-        <v>2.024585797238544</v>
+        <v>3.675439362867501</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.08294173432479</v>
+        <v>32.73398585690954</v>
       </c>
       <c r="J18">
-        <v>6.039929079340859</v>
+        <v>10.42388519847845</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.893251542589383</v>
+        <v>10.33247998486328</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>31.22625992110859</v>
+        <v>33.02206739528953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.945771531564495</v>
+        <v>9.006143148208508</v>
       </c>
       <c r="D19">
-        <v>4.363268527301906</v>
+        <v>7.577067583710449</v>
       </c>
       <c r="E19">
-        <v>8.267915232156801</v>
+        <v>13.16969966521625</v>
       </c>
       <c r="F19">
-        <v>41.39191130020677</v>
+        <v>42.77196664371775</v>
       </c>
       <c r="G19">
-        <v>2.025411654517891</v>
+        <v>3.675719656103634</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.97734052478222</v>
+        <v>32.71869967669892</v>
       </c>
       <c r="J19">
-        <v>6.037018122167058</v>
+        <v>10.42515298103309</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.891524024718432</v>
+        <v>10.33380514025136</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>31.11336129224702</v>
+        <v>33.00454892169395</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.989731321101445</v>
+        <v>9.005666647555225</v>
       </c>
       <c r="D20">
-        <v>4.369163386056845</v>
+        <v>7.573559908625151</v>
       </c>
       <c r="E20">
-        <v>8.314925424229575</v>
+        <v>13.1660164816982</v>
       </c>
       <c r="F20">
-        <v>42.08234549474991</v>
+        <v>42.88645572307732</v>
       </c>
       <c r="G20">
-        <v>2.021701064796269</v>
+        <v>3.674465993300512</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.45185166652164</v>
+        <v>32.78795406793903</v>
       </c>
       <c r="J20">
-        <v>6.050348954369081</v>
+        <v>10.41953172435045</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.899504837281659</v>
+        <v>10.32791905275509</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>31.62053544720462</v>
+        <v>33.08384720834048</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.140371589435469</v>
+        <v>9.005664994133594</v>
       </c>
       <c r="D21">
-        <v>4.391138264991403</v>
+        <v>7.562585793322602</v>
       </c>
       <c r="E21">
-        <v>8.478200248544402</v>
+        <v>13.15587438700849</v>
       </c>
       <c r="F21">
-        <v>44.37769049020459</v>
+        <v>43.28125352867688</v>
       </c>
       <c r="G21">
-        <v>2.009322656374033</v>
+        <v>3.670387965579219</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.03363670251309</v>
+        <v>33.02863365333585</v>
       </c>
       <c r="J21">
-        <v>6.099294774957915</v>
+        <v>10.40211249359345</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.930034279962555</v>
+        <v>10.30949345385297</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>33.30903194061757</v>
+        <v>33.35821429584388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.241034409449083</v>
+        <v>9.006853241747686</v>
       </c>
       <c r="D22">
-        <v>4.407188638964473</v>
+        <v>7.556016883257875</v>
       </c>
       <c r="E22">
-        <v>8.588985453438623</v>
+        <v>13.15090837898087</v>
       </c>
       <c r="F22">
-        <v>45.85978799208912</v>
+        <v>43.54650422214587</v>
       </c>
       <c r="G22">
-        <v>2.001280745668766</v>
+        <v>3.66782216897277</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.0581226261503</v>
+        <v>33.19171344840963</v>
       </c>
       <c r="J22">
-        <v>6.134521234288565</v>
+        <v>10.39182053544988</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.952878109005256</v>
+        <v>10.29845660139321</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>34.40107682127484</v>
+        <v>33.54323145197253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.187104709860036</v>
+        <v>9.006110413439092</v>
       </c>
       <c r="D23">
-        <v>4.398462889921719</v>
+        <v>7.559467714310561</v>
       </c>
       <c r="E23">
-        <v>8.529476965830643</v>
+        <v>13.15340684386442</v>
       </c>
       <c r="F23">
-        <v>45.0703894590392</v>
+        <v>43.4042947145695</v>
       </c>
       <c r="G23">
-        <v>2.005569688337891</v>
+        <v>3.669182518467133</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.51217375893982</v>
+        <v>33.10415728504513</v>
       </c>
       <c r="J23">
-        <v>6.115414580353192</v>
+        <v>10.39721365926365</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.94041320112081</v>
+        <v>10.30425528349495</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>33.81926455489342</v>
+        <v>33.44397646497094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.987306218614414</v>
+        <v>9.005686791768648</v>
       </c>
       <c r="D24">
-        <v>4.368831683073296</v>
+        <v>7.573749478404847</v>
       </c>
       <c r="E24">
-        <v>8.31232405341688</v>
+        <v>13.16621034029256</v>
       </c>
       <c r="F24">
-        <v>42.04452176139431</v>
+        <v>42.88012961397602</v>
       </c>
       <c r="G24">
-        <v>2.021904455920277</v>
+        <v>3.674534332619707</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.4258404291</v>
+        <v>32.78412043535855</v>
       </c>
       <c r="J24">
-        <v>6.049601594915375</v>
+        <v>10.41983489350378</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.899052891585269</v>
+        <v>10.32823720292228</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>31.59274208213168</v>
+        <v>33.07946214291094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.781199723260134</v>
+        <v>9.010352202670299</v>
       </c>
       <c r="D25">
-        <v>4.343668246896432</v>
+        <v>7.591753207561138</v>
       </c>
       <c r="E25">
-        <v>8.094942823476797</v>
+        <v>13.18716891447912</v>
       </c>
       <c r="F25">
-        <v>38.70337380090219</v>
+        <v>42.34781854861411</v>
       </c>
       <c r="G25">
-        <v>2.039842630353955</v>
+        <v>3.680737427174831</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.13617666862597</v>
+        <v>32.46484992796635</v>
       </c>
       <c r="J25">
-        <v>5.991629976680097</v>
+        <v>10.4489336017068</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.866081524315946</v>
+        <v>10.35843133447791</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>29.14205432393844</v>
+        <v>32.71210494073937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.01820408189476</v>
+        <v>5.637520790938115</v>
       </c>
       <c r="D2">
-        <v>7.607254736013832</v>
+        <v>4.330534260310985</v>
       </c>
       <c r="E2">
-        <v>13.20875538047561</v>
+        <v>7.948737782226168</v>
       </c>
       <c r="F2">
-        <v>41.98635104916716</v>
+        <v>36.18124988316315</v>
       </c>
       <c r="G2">
-        <v>3.685679427710111</v>
+        <v>2.053435012060675</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.25314471626245</v>
+        <v>26.42023276924019</v>
       </c>
       <c r="J2">
-        <v>10.4744092580595</v>
+        <v>5.959236367450718</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.38439625577701</v>
+        <v>5.851030205371712</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>32.46513917364775</v>
+        <v>27.29886545907728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.026284143667457</v>
+        <v>5.545224482907157</v>
       </c>
       <c r="D3">
-        <v>7.619166327290476</v>
+        <v>4.324793953064084</v>
       </c>
       <c r="E3">
-        <v>13.22722596969196</v>
+        <v>7.858009727708456</v>
       </c>
       <c r="F3">
-        <v>41.76131505605715</v>
+        <v>34.43851774959869</v>
       </c>
       <c r="G3">
-        <v>3.689264724329762</v>
+        <v>2.06293460158297</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.12472334157368</v>
+        <v>25.24242200968411</v>
       </c>
       <c r="J3">
-        <v>10.49420576174005</v>
+        <v>5.943283650058905</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.40432801276011</v>
+        <v>5.846222500145529</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>32.31302885946887</v>
+        <v>26.02946442166634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.032606829518814</v>
+        <v>5.491076403298739</v>
       </c>
       <c r="D4">
-        <v>7.627175429834075</v>
+        <v>4.322766013696612</v>
       </c>
       <c r="E4">
-        <v>13.24046196189959</v>
+        <v>7.806332773105158</v>
       </c>
       <c r="F4">
-        <v>41.63325448983645</v>
+        <v>33.35465226558205</v>
       </c>
       <c r="G4">
-        <v>3.691583311878324</v>
+        <v>2.068923553849553</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.05343635976043</v>
+        <v>24.51378004635709</v>
       </c>
       <c r="J4">
-        <v>10.50761109073018</v>
+        <v>5.936317104570168</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.41772010662014</v>
+        <v>5.845817792600863</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>32.22733609144269</v>
+        <v>25.24203402487283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.035525839059773</v>
+        <v>5.469647930318711</v>
       </c>
       <c r="D5">
-        <v>7.630614320094867</v>
+        <v>4.322307194454904</v>
       </c>
       <c r="E5">
-        <v>13.24633228767249</v>
+        <v>7.786274007652616</v>
       </c>
       <c r="F5">
-        <v>41.58365123480633</v>
+        <v>32.9100033280387</v>
       </c>
       <c r="G5">
-        <v>3.69255773400047</v>
+        <v>2.071405297829878</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.02630787008246</v>
+        <v>24.2158287208881</v>
       </c>
       <c r="J5">
-        <v>10.51338847736726</v>
+        <v>5.934170635913472</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.42346796923212</v>
+        <v>5.846277375356669</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>32.19437749993968</v>
+        <v>24.91950685215556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.03603122401627</v>
+        <v>5.466128316591147</v>
       </c>
       <c r="D6">
-        <v>7.63119592959725</v>
+        <v>4.32225295927662</v>
       </c>
       <c r="E6">
-        <v>13.2473358334885</v>
+        <v>7.783003252149109</v>
       </c>
       <c r="F6">
-        <v>41.57557170401196</v>
+        <v>32.83600738477431</v>
       </c>
       <c r="G6">
-        <v>3.692721325709278</v>
+        <v>2.071819931652843</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.02191977967173</v>
+        <v>24.16630358728719</v>
       </c>
       <c r="J6">
-        <v>10.51436681616352</v>
+        <v>5.933855497408081</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.42443995059588</v>
+        <v>5.846390948081551</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>32.18902391359681</v>
+        <v>24.86586436431095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.032644809587213</v>
+        <v>5.490784827400527</v>
       </c>
       <c r="D7">
-        <v>7.627221098511666</v>
+        <v>4.322758348890853</v>
       </c>
       <c r="E7">
-        <v>13.24053920161131</v>
+        <v>7.806058222976353</v>
       </c>
       <c r="F7">
-        <v>41.63257501756477</v>
+        <v>33.34866683590526</v>
       </c>
       <c r="G7">
-        <v>3.691596333370152</v>
+        <v>2.068956854254461</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.05306269155859</v>
+        <v>24.50976541328949</v>
       </c>
       <c r="J7">
-        <v>10.50768773245974</v>
+        <v>5.936285377332637</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.41779644777081</v>
+        <v>5.845821482900857</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767602</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>32.22688362618261</v>
+        <v>25.23769042352293</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.020707590515187</v>
+        <v>5.605175512517537</v>
       </c>
       <c r="D8">
-        <v>7.611217696648281</v>
+        <v>4.328238989602084</v>
       </c>
       <c r="E8">
-        <v>13.21473077934277</v>
+        <v>7.916610318004769</v>
       </c>
       <c r="F8">
-        <v>41.90668478266929</v>
+        <v>35.58350101350691</v>
       </c>
       <c r="G8">
-        <v>3.686891377876952</v>
+        <v>2.056679262120567</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.20730747324313</v>
+        <v>26.01544907765727</v>
       </c>
       <c r="J8">
-        <v>10.4809757574066</v>
+        <v>5.953137361605012</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.39102942067699</v>
+        <v>5.848834021388273</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>32.41110837230735</v>
+        <v>26.86304181667272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.008095190907783</v>
+        <v>5.849375256000446</v>
       </c>
       <c r="D9">
-        <v>7.585340521831191</v>
+        <v>4.351278102963336</v>
       </c>
       <c r="E9">
-        <v>13.17915328946066</v>
+        <v>8.165976837622001</v>
       </c>
       <c r="F9">
-        <v>42.52252545928049</v>
+        <v>39.83896098580876</v>
       </c>
       <c r="G9">
-        <v>3.678590008459284</v>
+        <v>2.033747264478268</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.56883389625045</v>
+        <v>28.91249417672369</v>
       </c>
       <c r="J9">
-        <v>10.43850311359026</v>
+        <v>6.009501361828986</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.34768134080416</v>
+        <v>5.87570463154988</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>32.83228033051572</v>
+        <v>29.97395556591123</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.005399333771559</v>
+        <v>6.040791376232834</v>
       </c>
       <c r="D10">
-        <v>7.569669068581196</v>
+        <v>4.376316321203957</v>
       </c>
       <c r="E10">
-        <v>13.16217310825693</v>
+        <v>8.369904505566582</v>
       </c>
       <c r="F10">
-        <v>43.01989616275389</v>
+        <v>42.87193367825341</v>
       </c>
       <c r="G10">
-        <v>3.673048073627135</v>
+        <v>2.017451453198583</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.86899788218302</v>
+        <v>30.99526423990415</v>
       </c>
       <c r="J10">
-        <v>10.41332570842081</v>
+        <v>6.066395154549608</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.32138811905197</v>
+        <v>5.909323524308442</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>33.17643199513781</v>
+        <v>32.20096757706261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.005595722851368</v>
+        <v>6.130481989364005</v>
       </c>
       <c r="D11">
-        <v>7.563261710337153</v>
+        <v>4.389617462080959</v>
       </c>
       <c r="E11">
-        <v>13.15643464630134</v>
+        <v>8.467385064499611</v>
       </c>
       <c r="F11">
-        <v>43.25524313501465</v>
+        <v>44.2300142617897</v>
       </c>
       <c r="G11">
-        <v>3.670646410026934</v>
+        <v>2.010121566319787</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.01269722576998</v>
+        <v>31.93168464947678</v>
       </c>
       <c r="J11">
-        <v>10.40317753376363</v>
+        <v>6.095937461041654</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.31062878041591</v>
+        <v>5.927890131610521</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>33.34009884886685</v>
+        <v>33.20029415715624</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.005874185416241</v>
+        <v>6.164824505492206</v>
       </c>
       <c r="D12">
-        <v>7.56093890835887</v>
+        <v>4.394942743553986</v>
       </c>
       <c r="E12">
-        <v>13.15454686261362</v>
+        <v>8.504996045846424</v>
       </c>
       <c r="F12">
-        <v>43.34560911248911</v>
+        <v>44.74118232821336</v>
       </c>
       <c r="G12">
-        <v>3.669754018713046</v>
+        <v>2.007354468538746</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.06810788966697</v>
+        <v>32.28468377450974</v>
       </c>
       <c r="J12">
-        <v>10.39952209487564</v>
+        <v>6.107677520948336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.30672695497604</v>
+        <v>5.935414804813015</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>33.40305771350333</v>
+        <v>33.57673830096923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.005805145158529</v>
+        <v>6.157411312589902</v>
       </c>
       <c r="D13">
-        <v>7.561434564993388</v>
+        <v>4.393782789702437</v>
       </c>
       <c r="E13">
-        <v>13.15494075009878</v>
+        <v>8.496864490824189</v>
       </c>
       <c r="F13">
-        <v>43.32609281545938</v>
+        <v>44.63123027022291</v>
       </c>
       <c r="G13">
-        <v>3.669945453721603</v>
+        <v>2.007950089488106</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.05613052324649</v>
+        <v>32.20872991100897</v>
       </c>
       <c r="J13">
-        <v>10.40030102565641</v>
+        <v>6.105124045305743</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.3075596153684</v>
+        <v>5.933771874895688</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>33.38945539862658</v>
+        <v>33.49575159891042</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.005614544916646</v>
+        <v>6.133299753550232</v>
       </c>
       <c r="D14">
-        <v>7.563068538649345</v>
+        <v>4.390049712883759</v>
       </c>
       <c r="E14">
-        <v>13.15627362253659</v>
+        <v>8.470465245180582</v>
       </c>
       <c r="F14">
-        <v>43.26265300682772</v>
+        <v>44.27213028524668</v>
       </c>
       <c r="G14">
-        <v>3.67057265099696</v>
+        <v>2.009893764534163</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.01723615636239</v>
+        <v>31.96075807255843</v>
       </c>
       <c r="J14">
-        <v>10.40287304306725</v>
+        <v>6.096892079013223</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.31030431932244</v>
+        <v>5.928499152600163</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>33.3452590760745</v>
+        <v>33.23130386118489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.005524359729998</v>
+        <v>6.118580170821894</v>
       </c>
       <c r="D15">
-        <v>7.564082869342791</v>
+        <v>4.38780108425347</v>
       </c>
       <c r="E15">
-        <v>13.15712718214455</v>
+        <v>8.454386380501816</v>
       </c>
       <c r="F15">
-        <v>43.22395457002656</v>
+        <v>44.05176821835105</v>
       </c>
       <c r="G15">
-        <v>3.670959047002838</v>
+        <v>2.011085330692296</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.99354075721487</v>
+        <v>31.80866010881967</v>
       </c>
       <c r="J15">
-        <v>10.40447288324399</v>
+        <v>6.091922609775023</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.31200798617252</v>
+        <v>5.925334500368334</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>33.31831416865841</v>
+        <v>33.06906542484838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.005415088211734</v>
+        <v>6.034982649950598</v>
       </c>
       <c r="D16">
-        <v>7.570102305024408</v>
+        <v>4.375486650810091</v>
       </c>
       <c r="E16">
-        <v>13.16258806578172</v>
+        <v>8.363630347925989</v>
       </c>
       <c r="F16">
-        <v>43.00469336455872</v>
+        <v>42.78274268687416</v>
       </c>
       <c r="G16">
-        <v>3.673207421731635</v>
+        <v>2.017931871075912</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.85974788798388</v>
+        <v>30.93384194692354</v>
       </c>
       <c r="J16">
-        <v>10.41401515957139</v>
+        <v>6.06454038709362</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.32211542192461</v>
+        <v>5.908177960464358</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>33.16587562754422</v>
+        <v>32.13538073190063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.00571212802164</v>
+        <v>5.984368838956749</v>
       </c>
       <c r="D17">
-        <v>7.573979693102517</v>
+        <v>4.3684309105626</v>
       </c>
       <c r="E17">
-        <v>13.16644657250394</v>
+        <v>8.309174398275243</v>
       </c>
       <c r="F17">
-        <v>42.87246869764549</v>
+        <v>41.99866770245448</v>
       </c>
       <c r="G17">
-        <v>3.674617233054374</v>
+        <v>2.022151009218218</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.77947897145218</v>
+        <v>30.39430926392188</v>
       </c>
       <c r="J17">
-        <v>10.42020316182844</v>
+        <v>6.048698199538244</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.32862356017369</v>
+        <v>5.898507269749775</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>33.07415235336734</v>
+        <v>31.55904932305202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.006016928227037</v>
+        <v>5.95550287311239</v>
       </c>
       <c r="D18">
-        <v>7.576277805706456</v>
+        <v>4.364551634131372</v>
       </c>
       <c r="E18">
-        <v>13.16885283058786</v>
+        <v>8.278295036288185</v>
       </c>
       <c r="F18">
-        <v>42.79727609406719</v>
+        <v>41.54564600264008</v>
       </c>
       <c r="G18">
-        <v>3.675439362867501</v>
+        <v>2.024585797238675</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.73398585690954</v>
+        <v>30.08294173432478</v>
       </c>
       <c r="J18">
-        <v>10.42388519847845</v>
+        <v>6.039929079340888</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.33247998486328</v>
+        <v>5.893251542589383</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>33.02206739528953</v>
+        <v>31.22625992110861</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.006143148208508</v>
+        <v>5.945771531564572</v>
       </c>
       <c r="D19">
-        <v>7.577067583710449</v>
+        <v>4.363268527301951</v>
       </c>
       <c r="E19">
-        <v>13.16969966521625</v>
+        <v>8.267915232156751</v>
       </c>
       <c r="F19">
-        <v>42.77196664371775</v>
+        <v>41.39191130020676</v>
       </c>
       <c r="G19">
-        <v>3.675719656103634</v>
+        <v>2.025411654517751</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.71869967669892</v>
+        <v>29.97734052478222</v>
       </c>
       <c r="J19">
-        <v>10.42515298103309</v>
+        <v>6.037018122167108</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.33380514025136</v>
+        <v>5.891524024718427</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>33.00454892169395</v>
+        <v>31.11336129224701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.005666647555225</v>
+        <v>5.989731321101549</v>
       </c>
       <c r="D20">
-        <v>7.573559908625151</v>
+        <v>4.369163386056901</v>
       </c>
       <c r="E20">
-        <v>13.1660164816982</v>
+        <v>8.314925424229569</v>
       </c>
       <c r="F20">
-        <v>42.88645572307732</v>
+        <v>42.08234549474989</v>
       </c>
       <c r="G20">
-        <v>3.674465993300512</v>
+        <v>2.021701064796273</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.78795406793903</v>
+        <v>30.45185166652163</v>
       </c>
       <c r="J20">
-        <v>10.41953172435045</v>
+        <v>6.050348954369075</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.32791905275509</v>
+        <v>5.899504837281653</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>33.08384720834048</v>
+        <v>31.6205354472046</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.005664994133594</v>
+        <v>6.1403715894354</v>
       </c>
       <c r="D21">
-        <v>7.562585793322602</v>
+        <v>4.391138264991448</v>
       </c>
       <c r="E21">
-        <v>13.15587438700849</v>
+        <v>8.478200248544439</v>
       </c>
       <c r="F21">
-        <v>43.28125352867688</v>
+        <v>44.37769049020456</v>
       </c>
       <c r="G21">
-        <v>3.670387965579219</v>
+        <v>2.009322656373898</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.02863365333585</v>
+        <v>32.03363670251308</v>
       </c>
       <c r="J21">
-        <v>10.40211249359345</v>
+        <v>6.099294774957917</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.30949345385297</v>
+        <v>5.930034279962586</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>33.35821429584388</v>
+        <v>33.30903194061756</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.006853241747686</v>
+        <v>6.241034409449099</v>
       </c>
       <c r="D22">
-        <v>7.556016883257875</v>
+        <v>4.407188638964469</v>
       </c>
       <c r="E22">
-        <v>13.15090837898087</v>
+        <v>8.588985453438665</v>
       </c>
       <c r="F22">
-        <v>43.54650422214587</v>
+        <v>45.85978799208906</v>
       </c>
       <c r="G22">
-        <v>3.66782216897277</v>
+        <v>2.0012807456685</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.19171344840963</v>
+        <v>33.05812262615026</v>
       </c>
       <c r="J22">
-        <v>10.39182053544988</v>
+        <v>6.1345212342886</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.29845660139321</v>
+        <v>5.952878109005229</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>33.54323145197253</v>
+        <v>34.40107682127478</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.006110413439092</v>
+        <v>6.187104709859984</v>
       </c>
       <c r="D23">
-        <v>7.559467714310561</v>
+        <v>4.398462889921771</v>
       </c>
       <c r="E23">
-        <v>13.15340684386442</v>
+        <v>8.529476965830671</v>
       </c>
       <c r="F23">
-        <v>43.4042947145695</v>
+        <v>45.07038945903923</v>
       </c>
       <c r="G23">
-        <v>3.669182518467133</v>
+        <v>2.005569688337759</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.10415728504513</v>
+        <v>32.51217375893982</v>
       </c>
       <c r="J23">
-        <v>10.39721365926365</v>
+        <v>6.115414580353213</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.30425528349495</v>
+        <v>5.940413201120838</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>33.44397646497094</v>
+        <v>33.81926455489342</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.005686791768648</v>
+        <v>5.987306218614368</v>
       </c>
       <c r="D24">
-        <v>7.573749478404847</v>
+        <v>4.368831683073274</v>
       </c>
       <c r="E24">
-        <v>13.16621034029256</v>
+        <v>8.31232405341688</v>
       </c>
       <c r="F24">
-        <v>42.88012961397602</v>
+        <v>42.04452176139434</v>
       </c>
       <c r="G24">
-        <v>3.674534332619707</v>
+        <v>2.021904455920141</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.78412043535855</v>
+        <v>30.42584042910007</v>
       </c>
       <c r="J24">
-        <v>10.41983489350378</v>
+        <v>6.049601594915383</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.32823720292228</v>
+        <v>5.899052891585336</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>33.07946214291094</v>
+        <v>31.59274208213171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.010352202670299</v>
+        <v>5.781199723260062</v>
       </c>
       <c r="D25">
-        <v>7.591753207561138</v>
+        <v>4.343668246896209</v>
       </c>
       <c r="E25">
-        <v>13.18716891447912</v>
+        <v>8.094942823476634</v>
       </c>
       <c r="F25">
-        <v>42.34781854861411</v>
+        <v>38.70337380090213</v>
       </c>
       <c r="G25">
-        <v>3.680737427174831</v>
+        <v>2.03984263035395</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.46484992796635</v>
+        <v>28.13617666862592</v>
       </c>
       <c r="J25">
-        <v>10.4489336017068</v>
+        <v>5.991629976680024</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.35843133447791</v>
+        <v>5.866081524315893</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>32.71210494073937</v>
+        <v>29.14205432393841</v>
       </c>
     </row>
   </sheetData>
